--- a/AAII_Financials/Quarterly/CATN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CATN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>CATN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -755,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -769,25 +772,28 @@
       <c r="O8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>700</v>
-      </c>
-      <c r="F9" s="3">
-        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -799,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -810,26 +816,29 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="E10" s="3">
         <v>1300</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
@@ -837,13 +846,13 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
@@ -851,8 +860,11 @@
       <c r="O10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -964,11 +983,11 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -976,11 +995,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-200</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -988,11 +1007,14 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,61 +1071,65 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E17" s="3">
         <v>1700</v>
       </c>
       <c r="F17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
@@ -1108,28 +1137,31 @@
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,20 +1219,23 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
-        <v>-200</v>
-      </c>
       <c r="G21" s="3">
         <v>-200</v>
       </c>
@@ -1207,36 +1243,39 @@
         <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
       <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1244,17 +1283,17 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1268,20 +1307,23 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
@@ -1289,28 +1331,31 @@
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,20 +1439,23 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-200</v>
-      </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
@@ -1412,40 +1463,43 @@
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
@@ -1453,28 +1507,31 @@
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>-200</v>
-      </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1678,20 +1747,23 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
@@ -1699,28 +1771,31 @@
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>-200</v>
-      </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,20 +1835,23 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
@@ -1781,74 +1859,80 @@
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>-200</v>
-      </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,25 +1966,26 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>500</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -1908,22 +1994,25 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>300</v>
       </c>
       <c r="M41" s="3">
         <v>300</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,66 +2052,72 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3">
-        <v>100</v>
-      </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -2039,23 +2134,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
@@ -2063,72 +2161,78 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
       </c>
       <c r="H46" s="3">
+        <v>400</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
+        <v>300</v>
+      </c>
+      <c r="N46" s="3">
         <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2192,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2209,31 +2316,34 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
       </c>
       <c r="M54" s="3">
+        <v>300</v>
+      </c>
+      <c r="N54" s="3">
         <v>400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2506,8 +2636,8 @@
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2515,11 +2645,11 @@
       <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2530,8 +2660,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2539,16 +2672,16 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2556,11 +2689,11 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -2571,28 +2704,31 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E59" s="3">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F59" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="G59" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="H59" s="3">
+        <v>500</v>
+      </c>
+      <c r="I59" s="3">
         <v>600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -2601,60 +2737,66 @@
         <v>300</v>
       </c>
       <c r="L59" s="3">
+        <v>300</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
       </c>
       <c r="K60" s="3">
+        <v>400</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
       <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-400</v>
       </c>
-      <c r="L72" s="3">
-        <v>-200</v>
-      </c>
       <c r="M72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
-      <c r="N72" s="3">
-        <v>-200</v>
-      </c>
       <c r="O72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
-        <v>-200</v>
-      </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>200</v>
       </c>
       <c r="O76" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,66 +3514,72 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
@@ -3393,28 +3587,31 @@
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>-200</v>
-      </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3468,11 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>200</v>
       </c>
       <c r="F89" s="3">
+        <v>200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3772,11 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3895,11 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,38 +4321,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4120,13 +4365,16 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4134,11 +4382,11 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -4146,60 +4394,66 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CATN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CATN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>CATN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,114 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
@@ -775,32 +783,38 @@
       <c r="P8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F9" s="3">
         <v>700</v>
       </c>
       <c r="G9" s="3">
+        <v>900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>700</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
@@ -808,48 +822,54 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -858,13 +878,19 @@
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -986,35 +1026,41 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>-200</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>-200</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1222,84 +1290,96 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
       <c r="I21" s="3">
         <v>-200</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
       <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1310,52 +1390,64 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
       <c r="I27" s="3">
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1750,52 +1890,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
       <c r="I33" s="3">
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
       <c r="I35" s="3">
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,20 +2235,26 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
@@ -2076,54 +2262,60 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>400</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>100</v>
-      </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2137,102 +2329,120 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E46" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="F46" s="3">
         <v>1000</v>
       </c>
       <c r="G46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2485,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2302,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2319,19 +2535,25 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -2345,11 +2567,11 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E54" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="F54" s="3">
         <v>1000</v>
       </c>
       <c r="G54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2879,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2639,23 +2901,23 @@
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -2663,43 +2925,49 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>600</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -2707,96 +2975,114 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>500</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K59" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>300</v>
+      </c>
+      <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
-        <v>100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
-      </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="E60" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="F60" s="3">
         <v>1400</v>
       </c>
       <c r="G60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
-        <v>100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>100</v>
-      </c>
       <c r="P60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3125,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="E66" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="F66" s="3">
         <v>1400</v>
       </c>
       <c r="G66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
-        <v>100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>100</v>
-      </c>
       <c r="P66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-800</v>
+        <v>-1400</v>
       </c>
       <c r="E72" s="3">
-        <v>-400</v>
+        <v>-1100</v>
       </c>
       <c r="F72" s="3">
         <v>-800</v>
       </c>
       <c r="G72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-400</v>
       </c>
-      <c r="M72" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P72" s="3">
         <v>-100</v>
       </c>
-      <c r="O72" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-300</v>
+        <v>-800</v>
       </c>
       <c r="E76" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="F76" s="3">
         <v>-300</v>
       </c>
       <c r="G76" s="3">
+        <v>100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="N76" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O76" s="3">
         <v>200</v>
       </c>
       <c r="P76" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q76" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
       <c r="I81" s="3">
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3669,11 +4067,17 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-500</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>-200</v>
-      </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,16 +4394,18 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3995,11 +4437,17 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4540,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4127,11 +4587,17 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4810,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CATN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CATN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>CATN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,26 +752,26 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -775,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,25 +805,25 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>700</v>
-      </c>
-      <c r="I9" s="3">
-        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -828,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -839,8 +846,11 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,26 +858,26 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1300</v>
       </c>
       <c r="H10" s="3">
         <v>1300</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
@@ -875,13 +885,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
@@ -889,8 +899,11 @@
       <c r="R10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,11 +1052,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1044,11 +1064,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-200</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1056,11 +1076,14 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,79 +1152,83 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1700</v>
       </c>
       <c r="H17" s="3">
         <v>1700</v>
       </c>
       <c r="I17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
-        <v>-200</v>
-      </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
@@ -1206,28 +1236,31 @@
         <v>-200</v>
       </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,11 +1289,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1296,29 +1330,32 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
         <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
-        <v>-200</v>
-      </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
@@ -1326,28 +1363,31 @@
         <v>-200</v>
       </c>
       <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>-200</v>
-      </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
       <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1357,14 +1397,14 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1372,17 +1412,17 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1396,29 +1436,32 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
       </c>
       <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
@@ -1426,28 +1469,31 @@
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>-200</v>
-      </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,29 +1595,32 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
@@ -1576,49 +1628,52 @@
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>-200</v>
-      </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
@@ -1626,28 +1681,31 @@
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>-200</v>
-      </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1896,29 +1966,32 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
@@ -1926,28 +1999,31 @@
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>-200</v>
-      </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,29 +2072,32 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
@@ -2026,83 +2105,89 @@
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>-200</v>
-      </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2150,25 +2237,25 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2177,22 +2264,25 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>300</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2331,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2303,22 +2399,22 @@
         <v>400</v>
       </c>
       <c r="F44" s="3">
+        <v>400</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>400</v>
       </c>
-      <c r="I44" s="3">
-        <v>100</v>
-      </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2335,32 +2431,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
@@ -2368,81 +2467,87 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
       </c>
       <c r="K46" s="3">
+        <v>400</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>400</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2524,13 +2632,13 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2555,8 +2666,8 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -2573,8 +2684,8 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
-        <v>100</v>
-      </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>300</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,34 +3011,35 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2916,11 +3047,11 @@
       <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2943,13 +3077,13 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
@@ -2957,8 +3091,8 @@
       <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>600</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2966,11 +3100,11 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
+        <v>100</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -2981,37 +3115,40 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
@@ -3020,69 +3157,75 @@
         <v>300</v>
       </c>
       <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
-        <v>100</v>
-      </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
       </c>
       <c r="N60" s="3">
+        <v>400</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
-        <v>100</v>
-      </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
       </c>
       <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
-        <v>100</v>
-      </c>
       <c r="Q66" s="3">
         <v>100</v>
       </c>
       <c r="R66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-400</v>
       </c>
-      <c r="O72" s="3">
-        <v>-200</v>
-      </c>
       <c r="P72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-100</v>
       </c>
-      <c r="Q72" s="3">
-        <v>-200</v>
-      </c>
       <c r="R72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
-        <v>100</v>
-      </c>
       <c r="H76" s="3">
+        <v>100</v>
+      </c>
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
-        <v>-200</v>
-      </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>300</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>200</v>
       </c>
       <c r="R76" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,84 +4090,90 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
@@ -3986,28 +4181,31 @@
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>-200</v>
-      </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4073,11 +4272,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>-200</v>
-      </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>200</v>
       </c>
       <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4407,8 +4628,8 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4443,11 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4593,11 +4823,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4825,38 +5071,38 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
-        <v>-200</v>
-      </c>
       <c r="H100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4877,11 +5126,11 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -4889,11 +5138,11 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4901,69 +5150,75 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CATN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CATN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>CATN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,119 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -782,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
@@ -796,37 +799,40 @@
       <c r="S8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
       </c>
       <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
-      </c>
-      <c r="J9" s="3">
-        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -838,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -849,8 +855,11 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,26 +870,26 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1300</v>
       </c>
       <c r="I10" s="3">
         <v>1300</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
@@ -888,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
@@ -902,8 +911,11 @@
       <c r="S10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1055,11 +1074,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1067,11 +1086,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>-200</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1079,11 +1098,14 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,85 +1178,89 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1700</v>
       </c>
       <c r="I17" s="3">
         <v>1700</v>
       </c>
       <c r="J17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
@@ -1239,28 +1268,31 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,23 +1312,24 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1333,32 +1366,35 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-300</v>
       </c>
       <c r="F21" s="3">
         <v>-300</v>
       </c>
       <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
@@ -1366,28 +1402,31 @@
         <v>-200</v>
       </c>
       <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
       <c r="O21" s="3">
         <v>-200</v>
       </c>
       <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1400,14 +1439,14 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1415,17 +1454,17 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1439,32 +1478,35 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-300</v>
       </c>
       <c r="G23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
@@ -1472,28 +1514,31 @@
         <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,32 +1646,35 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
       </c>
       <c r="G26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
@@ -1631,52 +1682,55 @@
         <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>-200</v>
-      </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-300</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
       </c>
       <c r="G27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
-        <v>-200</v>
-      </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
@@ -1684,28 +1738,31 @@
         <v>-200</v>
       </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,22 +1982,25 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1969,32 +2038,35 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-300</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
       </c>
       <c r="G33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
-        <v>-200</v>
-      </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
@@ -2002,28 +2074,31 @@
         <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>-200</v>
-      </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,32 +2150,35 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-300</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
       </c>
       <c r="G35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
-        <v>-200</v>
-      </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
@@ -2108,86 +2186,92 @@
         <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>-200</v>
-      </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2240,25 +2326,25 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>500</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2267,22 +2353,25 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>300</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2343,57 +2435,60 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>400</v>
@@ -2402,22 +2497,22 @@
         <v>400</v>
       </c>
       <c r="G44" s="3">
+        <v>400</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3">
-        <v>100</v>
-      </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2434,14 +2529,17 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2449,20 +2547,20 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
@@ -2470,84 +2568,90 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>400</v>
       </c>
       <c r="K46" s="3">
         <v>400</v>
       </c>
       <c r="L46" s="3">
+        <v>400</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
       <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>400</v>
-      </c>
-      <c r="R46" s="3">
-        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2635,13 +2742,13 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2652,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2669,8 +2779,8 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -2687,8 +2797,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
       </c>
       <c r="Q54" s="3">
+        <v>300</v>
+      </c>
+      <c r="R54" s="3">
         <v>400</v>
-      </c>
-      <c r="R54" s="3">
-        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,37 +3141,38 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
+        <v>1100</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3050,11 +3180,11 @@
       <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3065,13 +3195,16 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -3080,13 +3213,13 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>600</v>
       </c>
       <c r="J58" s="3">
         <v>600</v>
@@ -3094,8 +3227,8 @@
       <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>600</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -3103,11 +3236,11 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3118,40 +3251,43 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F59" s="3">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="G59" s="3">
+        <v>500</v>
+      </c>
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
@@ -3160,72 +3296,78 @@
         <v>300</v>
       </c>
       <c r="P59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
-        <v>100</v>
-      </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
       </c>
       <c r="O60" s="3">
+        <v>400</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
-        <v>100</v>
-      </c>
       <c r="R60" s="3">
         <v>100</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>400</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
       </c>
       <c r="O66" s="3">
+        <v>400</v>
+      </c>
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
-        <v>100</v>
-      </c>
       <c r="R66" s="3">
         <v>100</v>
       </c>
       <c r="S66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-400</v>
       </c>
-      <c r="P72" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R72" s="3">
         <v>-100</v>
       </c>
-      <c r="R72" s="3">
-        <v>-200</v>
-      </c>
       <c r="S72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
-        <v>100</v>
-      </c>
       <c r="I76" s="3">
+        <v>100</v>
+      </c>
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
-        <v>-200</v>
-      </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>200</v>
       </c>
       <c r="S76" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,90 +4281,96 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-300</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
       </c>
       <c r="G81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
-        <v>-200</v>
-      </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
@@ -4184,28 +4378,31 @@
         <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>-200</v>
-      </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4275,11 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>200</v>
       </c>
       <c r="J89" s="3">
+        <v>200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4631,8 +4851,8 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4667,11 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4826,11 +5055,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,50 +5304,53 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
-        <v>-200</v>
-      </c>
       <c r="I100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5115,13 +5360,16 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5129,11 +5377,11 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -5141,11 +5389,11 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5153,23 +5401,26 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5177,48 +5428,51 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CATN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CATN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>CATN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,141 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
@@ -802,44 +810,50 @@
       <c r="T8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>500</v>
-      </c>
-      <c r="H9" s="3">
-        <v>700</v>
-      </c>
-      <c r="I9" s="3">
-        <v>900</v>
       </c>
       <c r="J9" s="3">
         <v>700</v>
       </c>
       <c r="K9" s="3">
+        <v>900</v>
+      </c>
+      <c r="L9" s="3">
+        <v>700</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
@@ -847,60 +861,66 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -909,13 +929,19 @@
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,64 +1082,76 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>-200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,29 +1379,31 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1369,64 +1437,76 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-200</v>
       </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O21" s="3">
         <v>-200</v>
       </c>
       <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1442,35 +1522,35 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1481,64 +1561,76 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,28 +2119,34 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2041,64 +2181,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,13 +2486,15 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2329,49 +2503,55 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2606,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,23 +2621,23 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
@@ -2459,66 +2645,72 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
-        <v>400</v>
-      </c>
       <c r="F44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G44" s="3">
         <v>400</v>
       </c>
       <c r="H44" s="3">
+        <v>400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>400</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3">
-        <v>100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>100</v>
-      </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2532,126 +2724,144 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
+      <c r="S44" s="3">
+        <v>0</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>500</v>
+      </c>
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1400</v>
       </c>
       <c r="J46" s="3">
         <v>1000</v>
       </c>
       <c r="K46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>300</v>
-      </c>
-      <c r="R46" s="3">
-        <v>400</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
       </c>
       <c r="T46" s="3">
+        <v>400</v>
+      </c>
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2916,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2745,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2762,8 +2978,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2782,11 +3004,11 @@
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -2800,11 +3022,11 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3164,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>500</v>
+      </c>
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1400</v>
       </c>
       <c r="J54" s="3">
         <v>1000</v>
       </c>
       <c r="K54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>300</v>
-      </c>
-      <c r="R54" s="3">
-        <v>400</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
       </c>
       <c r="T54" s="3">
+        <v>400</v>
+      </c>
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,55 +3402,57 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
+      <c r="P57" s="3">
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3198,55 +3460,61 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
-        <v>200</v>
-      </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>600</v>
+      </c>
+      <c r="N58" s="3">
+        <v>600</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>100</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3254,64 +3522,76 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>500</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
       </c>
       <c r="N59" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O59" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
-        <v>100</v>
-      </c>
-      <c r="S59" s="3">
-        <v>100</v>
-      </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,55 +3599,61 @@
         <v>1200</v>
       </c>
       <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1300</v>
       </c>
       <c r="J60" s="3">
         <v>1400</v>
       </c>
       <c r="K60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
-        <v>100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>100</v>
-      </c>
       <c r="T60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3708,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3956,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,55 +3971,61 @@
         <v>1200</v>
       </c>
       <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1300</v>
       </c>
       <c r="J66" s="3">
         <v>1400</v>
       </c>
       <c r="K66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
-        <v>100</v>
-      </c>
-      <c r="S66" s="3">
-        <v>100</v>
-      </c>
       <c r="T66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-400</v>
       </c>
       <c r="J72" s="3">
         <v>-800</v>
       </c>
       <c r="K72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-100</v>
       </c>
       <c r="S72" s="3">
         <v>-200</v>
       </c>
       <c r="T72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>100</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
       </c>
       <c r="K76" s="3">
+        <v>100</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>200</v>
-      </c>
       <c r="R76" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S76" s="3">
         <v>200</v>
       </c>
       <c r="T76" s="3">
+        <v>300</v>
+      </c>
+      <c r="U76" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4476,11 +4874,17 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-500</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4854,11 +5296,11 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4890,11 +5332,17 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,16 +5459,22 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5058,11 +5518,17 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5793,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5374,105 +5872,117 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CATN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CATN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>CATN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,140 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -802,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
@@ -816,46 +820,49 @@
       <c r="V8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
-      </c>
-      <c r="M9" s="3">
-        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -867,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
@@ -878,20 +885,23 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
@@ -899,26 +909,26 @@
         <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1300</v>
       </c>
       <c r="L10" s="3">
         <v>1300</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
@@ -926,13 +936,13 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
@@ -940,8 +950,11 @@
       <c r="V10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1114,8 +1134,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1123,11 +1143,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1135,23 +1155,26 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>-200</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,102 +1259,106 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1700</v>
       </c>
       <c r="L17" s="3">
         <v>1700</v>
       </c>
       <c r="M17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
@@ -1337,28 +1367,31 @@
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,32 +1414,33 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1443,40 +1477,43 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-200</v>
@@ -1485,28 +1522,31 @@
         <v>-200</v>
       </c>
       <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
       <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
       <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1528,14 +1568,14 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1543,17 +1583,17 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1567,40 +1607,43 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
       <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
@@ -1609,28 +1652,31 @@
         <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,40 +1802,43 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-300</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
@@ -1795,60 +1847,63 @@
         <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-300</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
@@ -1857,28 +1912,31 @@
         <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,31 +2192,34 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2187,40 +2257,43 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-300</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
@@ -2229,28 +2302,31 @@
         <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,40 +2387,43 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-300</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
@@ -2353,95 +2432,101 @@
         <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2574,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2497,7 +2584,7 @@
         <v>300</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2509,25 +2596,25 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>500</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2536,22 +2623,25 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
-      </c>
-      <c r="S41" s="3">
-        <v>300</v>
       </c>
       <c r="T41" s="3">
         <v>300</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,84 +2702,90 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
-      </c>
-      <c r="E44" s="3">
-        <v>300</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
       </c>
       <c r="G44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
@@ -2698,22 +2794,22 @@
         <v>400</v>
       </c>
       <c r="J44" s="3">
+        <v>400</v>
+      </c>
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>400</v>
       </c>
-      <c r="M44" s="3">
-        <v>100</v>
-      </c>
       <c r="N44" s="3">
         <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2730,44 +2826,47 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
@@ -2775,93 +2874,99 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>500</v>
       </c>
       <c r="F46" s="3">
         <v>500</v>
       </c>
       <c r="G46" s="3">
+        <v>500</v>
+      </c>
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
       </c>
       <c r="O46" s="3">
+        <v>400</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
       </c>
       <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
         <v>400</v>
-      </c>
-      <c r="U46" s="3">
-        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3027,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2967,13 +3075,13 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3010,8 +3121,8 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -3028,8 +3139,8 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>500</v>
       </c>
       <c r="F54" s="3">
         <v>500</v>
       </c>
       <c r="G54" s="3">
+        <v>500</v>
+      </c>
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
       </c>
       <c r="T54" s="3">
+        <v>300</v>
+      </c>
+      <c r="U54" s="3">
         <v>400</v>
-      </c>
-      <c r="U54" s="3">
-        <v>300</v>
       </c>
       <c r="V54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,46 +3534,47 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3451,11 +3582,11 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3475,13 +3609,13 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -3490,13 +3624,13 @@
         <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>600</v>
       </c>
       <c r="M58" s="3">
         <v>600</v>
@@ -3504,8 +3638,8 @@
       <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>600</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -3513,11 +3647,11 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>100</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
@@ -3528,49 +3662,52 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
       </c>
       <c r="G59" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
@@ -3579,24 +3716,27 @@
         <v>300</v>
       </c>
       <c r="S59" s="3">
+        <v>300</v>
+      </c>
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
-        <v>100</v>
-      </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="3">
         <v>1200</v>
@@ -3605,60 +3745,63 @@
         <v>1200</v>
       </c>
       <c r="G60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
-      </c>
-      <c r="P60" s="3">
-        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
       </c>
       <c r="R60" s="3">
+        <v>400</v>
+      </c>
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
-        <v>100</v>
-      </c>
       <c r="U60" s="3">
         <v>100</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,13 +4117,16 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E66" s="3">
         <v>1200</v>
@@ -3977,55 +4135,58 @@
         <v>1200</v>
       </c>
       <c r="G66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>400</v>
       </c>
       <c r="R66" s="3">
+        <v>400</v>
+      </c>
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3">
-        <v>100</v>
-      </c>
       <c r="U66" s="3">
         <v>100</v>
       </c>
       <c r="V66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-1200</v>
       </c>
       <c r="F72" s="3">
         <v>-1200</v>
       </c>
       <c r="G72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H72" s="3">
         <v>-1500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-100</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-200</v>
       </c>
       <c r="V72" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-500</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-700</v>
       </c>
       <c r="F76" s="3">
         <v>-700</v>
       </c>
       <c r="G76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H76" s="3">
         <v>-1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
-        <v>100</v>
-      </c>
       <c r="L76" s="3">
+        <v>100</v>
+      </c>
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
       <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
         <v>200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>300</v>
-      </c>
-      <c r="U76" s="3">
-        <v>200</v>
       </c>
       <c r="V76" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,107 +4857,113 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-300</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
@@ -4777,28 +4972,31 @@
         <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4880,11 +5079,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>200</v>
       </c>
       <c r="M89" s="3">
+        <v>200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,13 +5499,14 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -5302,8 +5523,8 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5338,11 +5559,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,19 +5692,22 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5524,11 +5754,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,59 +6042,62 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -5861,22 +6107,25 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5884,11 +6133,11 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5896,11 +6145,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5908,32 +6157,35 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -5941,48 +6193,51 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
     </row>
